--- a/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_36.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_36.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI World_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI World_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI World_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI World_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI World_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI World_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI World_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI World_두바이유가</t>
   </si>
   <si>
-    <t>MSCI World_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI World_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI World_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI World_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI World_미국 REER</t>
   </si>
   <si>
-    <t>MSCI World_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI World_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI World_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI World_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI World_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI World_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI World_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI World_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI World_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI World_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI World_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI World_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI World_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI World_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 REER</t>
   </si>
   <si>
-    <t>MSCI World_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI World_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI World_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI World_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI World_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2894,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -2903,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -2927,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2939,158 +2714,158 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1</v>
-      </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
@@ -3098,85 +2873,85 @@
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY3" t="n">
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
         <v>2</v>
       </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
       <c r="CU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,61 +2963,61 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DF3" t="n">
         <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
         <v>3</v>
       </c>
       <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3251,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
         <v>0</v>
@@ -3260,361 +3035,361 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ3" t="n">
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
         <v>2</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9306603256505991</v>
+        <v>-0.9365861499237341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7892250081563973</v>
+        <v>0.9228384681522562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9003743873246034</v>
+        <v>0.8144348434332939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7730662733276314</v>
+        <v>0.879216990040105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6447482345419437</v>
+        <v>0.6077461303249226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5181829151140629</v>
+        <v>0.2380997738203778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9492029857241396</v>
+        <v>0.9497307422207375</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9269417893497517</v>
+        <v>0.9279273774882908</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8963485340381143</v>
+        <v>0.4966050711917413</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9105932445515854</v>
+        <v>0.4212340941533183</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8512828923216792</v>
+        <v>-0.5693476299751571</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8305947529058535</v>
+        <v>0.9570435112730488</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8374160698062458</v>
+        <v>-0.8132878357685259</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9117580164434701</v>
+        <v>0.9005552200822344</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1907302929370503</v>
+        <v>0.8242584983977412</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5752049965899526</v>
+        <v>0.8503895808835495</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7584329674589673</v>
+        <v>0.6786209590002692</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8578691115913452</v>
+        <v>0.7265667032146234</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8440313038905535</v>
+        <v>-0.6979636214620234</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8589228493882709</v>
+        <v>0.8943499189723386</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7845717079121077</v>
+        <v>0.5089802603124421</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6965907716397627</v>
+        <v>0.9320934427657515</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5238318020209738</v>
+        <v>0.8761627999446855</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5588019457157082</v>
+        <v>-0.1085235361319402</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7183230655072947</v>
+        <v>0.8637180318071698</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8803400271972992</v>
+        <v>0.5958889277563113</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.371563085417525</v>
+        <v>0.92068190465628</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9217283477051087</v>
+        <v>0.6568245295000146</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8470259288813015</v>
+        <v>0.9448914900145695</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08813188516162442</v>
+        <v>0.6889721927965515</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8691980027247375</v>
+        <v>0.5865244434596393</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5723543080375878</v>
+        <v>0.4062915381646817</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9080083104803811</v>
+        <v>-0.3881872287151544</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5876261880046785</v>
+        <v>0.9499454529385934</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9349783306540488</v>
+        <v>-0.118556042669771</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6797472429303261</v>
+        <v>0.8692909559766608</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4210740076656437</v>
+        <v>-0.09572328940039196</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.405909446125499</v>
+        <v>-0.4094335856191823</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3217635356323928</v>
+        <v>-0.798059984442807</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9678902618247122</v>
+        <v>0.9628734171575233</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3525342819568942</v>
+        <v>0.1052405629153113</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8574688747718598</v>
+        <v>-0.816212365954698</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3189777813701014</v>
+        <v>-0.6373221356578687</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.2362594826528513</v>
+        <v>0.9856926134237849</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7286401584959257</v>
+        <v>0.999459206903702</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.941203787557491</v>
+        <v>0.9973233311094646</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1171108895789968</v>
+        <v>0.9739275862834461</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7336282471647302</v>
+        <v>0.976743732150523</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7406933203705121</v>
+        <v>0.985843683869391</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.975618856913233</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9992666126689075</v>
+        <v>0.9955117854980629</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9965408917744732</v>
+        <v>0.9710885531941897</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9266331314492937</v>
+        <v>0.9139412856595888</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9638539904853177</v>
+        <v>0.881791767940512</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9807688146266322</v>
+        <v>0.7889332335125386</v>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>-0.06456099561812557</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9942985127877728</v>
+        <v>0.90722263322796</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9334639138211422</v>
+        <v>0.2942322005456917</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8475956341168883</v>
+        <v>0.871743160872093</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8846027674794311</v>
+        <v>0.1377580108723828</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6676326524124063</v>
+        <v>0.8840464346640998</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1894991426284786</v>
+        <v>0.8890587037643042</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.168720479265688</v>
+        <v>0.5018297194277584</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9023725545147538</v>
+        <v>-0.4896375000586343</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8626837955968087</v>
+        <v>0.9938190661191052</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.8712193475823892</v>
+        <v>0.882970142448528</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3473262475007095</v>
+        <v>0.9870851348724573</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8575762338419451</v>
+        <v>0.5185456596103095</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1334928702743179</v>
+        <v>0.9738711424029149</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8551098280480879</v>
+        <v>0.9047461934514708</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8578573453664302</v>
+        <v>0.2046887551425517</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5187940661056623</v>
+        <v>0.7867529921066346</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3701266693819698</v>
+        <v>0.7842224223162503</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9805945160403795</v>
+        <v>0.8167096659432083</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9016592383887896</v>
+        <v>-0.7101108949729762</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9847297866377795</v>
+        <v>-0.1282922535758856</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7709519159337147</v>
+        <v>0.5374862208664568</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9742280201941528</v>
+        <v>0.8968392902197032</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8581165777185749</v>
+        <v>0.8474707930499327</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.3886784839308185</v>
+        <v>0.7258325919301373</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8702777653036531</v>
+        <v>0.2189631350766865</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6962571900411783</v>
+        <v>0.6537778397533377</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7919127804555491</v>
+        <v>0.7708429557256078</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8462551442596262</v>
+        <v>-0.4328289468853349</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.2848736064366937</v>
+        <v>0.849537209258924</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.378087458571288</v>
+        <v>-0.1231700205360587</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8271611862853769</v>
+        <v>-0.2352626141274285</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8096396284315054</v>
+        <v>-0.1068311086971851</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.5917343150755879</v>
+        <v>-0.09417653555685242</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3585765427876429</v>
+        <v>0.2572622201462757</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7066178418612881</v>
+        <v>0.9668209609220435</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7551862365326162</v>
+        <v>-0.5972352252233066</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6187704592297442</v>
+        <v>0.7515462419052195</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.725817576427309</v>
+        <v>0.9616406250876802</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.199269453003255</v>
+        <v>-0.6389603070278648</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2036787609829545</v>
+        <v>0.9478230448230744</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.159102231808981</v>
+        <v>0.6268874416474318</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1873604292504604</v>
+        <v>0.9199856742550399</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4263282013454529</v>
+        <v>0.9169532803674516</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.8635862410947246</v>
+        <v>0.8840438136364036</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3608931285029522</v>
+        <v>0.9123824854067396</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.4953007216123673</v>
+        <v>-0.6403177240969045</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.8794984008605945</v>
+        <v>0.8467552385570597</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.4249854801816846</v>
+        <v>0.3900227672320343</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9033742374823481</v>
+        <v>0.9158510000136404</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5840290250771055</v>
+        <v>-0.6146427182515996</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8733767395023713</v>
+        <v>0.6365923573134452</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8966534390896137</v>
+        <v>0.6995586960900655</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8564153991403297</v>
+        <v>0.1660462767965253</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.8714267904710324</v>
+        <v>0.8876256792340852</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6207094492109627</v>
+        <v>-0.3622082611977636</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7143052707104853</v>
+        <v>0.8310603695775808</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3247606794446946</v>
+        <v>-0.4336492951206123</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9065648808429182</v>
+        <v>0.5365844605146504</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6396904646955093</v>
+        <v>0.2458230070552629</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7029959881301638</v>
+        <v>-0.7915589072046069</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.703948532012316</v>
+        <v>0.8295252513478842</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.09802015426021032</v>
+        <v>0.4318939508375392</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.7679381785009799</v>
+        <v>-0.2876726699037614</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8620806610557284</v>
+        <v>0.9668209609220435</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8382157680706641</v>
+        <v>0.9613272300164235</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2313772257750023</v>
+        <v>0.8847520498618114</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7314357355700337</v>
+        <v>0.7812507445615039</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.5845144785904891</v>
+        <v>0.9205818184113114</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4992669785763414</v>
+        <v>0.4449545846883026</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2812554359281212</v>
+        <v>0.8155339364556844</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7119786217622985</v>
+        <v>-0.9218415359512295</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.756662723043435</v>
+        <v>0.9885364144066195</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.5675376575111784</v>
+        <v>0.7509263245329235</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2715835393546485</v>
+        <v>0.9673930965948189</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.3854109287937096</v>
+        <v>0.9658537252980606</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.8036786662030654</v>
+        <v>0.6751897576471753</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.8635862410947246</v>
+        <v>-0.7242077420194636</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9362963251843089</v>
+        <v>0.4912531029364258</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.7700778544825216</v>
+        <v>-0.1860771077604797</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6936031361155579</v>
+        <v>0.8129617602700078</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8961547535661222</v>
+        <v>0.9541479920245362</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.3146961064963142</v>
+        <v>0.1785947418500086</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8720867380468843</v>
+        <v>0.8955910070898596</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9133158640694293</v>
+        <v>0.9556943477224114</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9806493424405243</v>
+        <v>0.9068056927875454</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6798774371642383</v>
+        <v>0.866324359254104</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9575969243088714</v>
+        <v>0.9210996416888796</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9562423261931413</v>
+        <v>-0.9760923723710375</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6033629163525837</v>
+        <v>0.9399970341595616</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.739806352899501</v>
+        <v>0.2655866400193655</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.1426065387735287</v>
+        <v>0.672588791171653</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2128000514302654</v>
+        <v>-0.8818187479798464</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7338057774408023</v>
+        <v>-0.9247465151462649</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9217928614945237</v>
+        <v>-0.9284183821016463</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.3407233297051765</v>
+        <v>0.7569669238443318</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8616017601969418</v>
+        <v>0.8059836968425248</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.926483551955165</v>
+        <v>0.8192131015606918</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8746181255945259</v>
+        <v>0.6717756082306938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8094099684379826</v>
+        <v>0.3430498582749081</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8977038940548482</v>
+        <v>-0.2372475464211175</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9605562828488596</v>
+        <v>-0.2668024452348092</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9098312417529631</v>
+        <v>0.4212340941533183</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2545375184397428</v>
+        <v>0.8772594211036359</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.4306397715844839</v>
+        <v>0.266242550382568</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.872426960365428</v>
+        <v>0.5265422188273025</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9072972205774161</v>
+        <v>-0.2017051312764218</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9211815746103887</v>
+        <v>0.839749986938125</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7006806429870979</v>
+        <v>-0.5925172125396221</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.723766565009485</v>
+        <v>-0.2957434988777223</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7815282562091015</v>
+        <v>-0.5609644542521033</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.938481706302552</v>
+        <v>-0.1130210080984415</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6475771214678521</v>
+        <v>0.9375164631993549</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.198046910895946</v>
+        <v>0.5508295732599203</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.2195794492734656</v>
+        <v>-0.2734264789424011</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.2410936253934891</v>
+        <v>-0.7844741690031325</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5752049965899526</v>
+        <v>0.9087973010658498</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8756878131580443</v>
+        <v>0.3851539376575771</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.2447877526015358</v>
+        <v>0.2453437952688458</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5622510562237243</v>
+        <v>0.7757382743582494</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.236255739687574</v>
+        <v>0.9375164631993549</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8022378333589624</v>
+        <v>0.7476494422147315</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4596185984844083</v>
+        <v>-0.267694543521091</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1114078218132449</v>
+        <v>0.7828462912979731</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4079410544610977</v>
+        <v>-0.7299831845641099</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6127124074405949</v>
+        <v>-0.2556578647122329</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4115777764272371</v>
+        <v>-0.2466596377476389</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0.02755367366533575</v>
+        <v>0.7471375624331233</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9228728919106212</v>
+        <v>0.630394874290941</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.4682063920482219</v>
+        <v>0.6431564163301012</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2081474084102482</v>
+        <v>0.9100645203498482</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.6809250786078982</v>
+        <v>0.8769569302334695</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9031016102101374</v>
+        <v>0.2071324188875451</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.375257425919597</v>
+        <v>0.8581456567941987</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8637307722762361</v>
+        <v>-0.8548495865799013</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5930629745839295</v>
+        <v>-0.3717870827211338</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.63862338154734</v>
+        <v>0.06284365480108056</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9228728919106212</v>
+        <v>0.5661841766887087</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3067233210474906</v>
+        <v>0.91950867938592</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8429376114631815</v>
+        <v>0.9019578480045467</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.3163601775540261</v>
+        <v>-0.6178727183558191</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7601908033515582</v>
+        <v>-0.7404084412590408</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.6001516816878109</v>
+        <v>-0.3717870827211336</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.0628162099544788</v>
+        <v>-0.3717870827211336</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.4625763147113264</v>
+        <v>0.8145184135708237</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.1622298428543982</v>
+        <v>0.7333175787600903</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6386106360083275</v>
+        <v>-0.3717870827211338</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7806244282359933</v>
+        <v>0.2758818924971923</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5123496262372876</v>
+        <v>0.3543811650833403</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5053753498396674</v>
+        <v>0.6344621871058137</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8965283690636066</v>
+        <v>0.7241473697882636</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8240693990104111</v>
+        <v>-0.7018864610914113</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2215089677326137</v>
+        <v>0.8669431808756499</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8238009003310097</v>
+        <v>0.7739236078388942</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7997735907998402</v>
+        <v>-0.5228808334708348</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2396690875979503</v>
+        <v>-0.6883089947844703</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.1337655718185117</v>
+        <v>0.2245239884787446</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.456385131450506</v>
+        <v>-0.1912130908558174</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8182578711403755</v>
+        <v>0.1433619173542619</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7574258293746557</v>
+        <v>0.9638932808070557</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9110332021581425</v>
+        <v>-0.830598304197036</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7441780221799041</v>
+        <v>0.2740711906720564</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.716243957097736</v>
+        <v>-0.3180958831976155</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2396690875979502</v>
+        <v>0.7931226708326037</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2396690875979502</v>
+        <v>0.7779780764974834</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7694859125540573</v>
+        <v>-0.1724980373305391</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.725955198794908</v>
+        <v>-0.2032395510492277</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2396690875979503</v>
+        <v>-0.3467991036966532</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1752286844242506</v>
+        <v>-0.2038479667604155</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.422704211378157</v>
+        <v>-0.7436446565321074</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4885279640835736</v>
+        <v>0.9505696609444464</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7869758574250389</v>
+        <v>-0.3569385710568427</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6074028311253991</v>
+        <v>0.5210152179067022</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8899663035155065</v>
+        <v>0.3927050287612854</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8630242225400229</v>
+        <v>0.8415978925650266</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8559693748486277</v>
+        <v>0.7552573085229027</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.1197023879247232</v>
+        <v>0.6417226987330161</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8849668690851711</v>
+        <v>-0.267121936399291</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6765791978786246</v>
+        <v>-0.5482023777895542</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4850830965632292</v>
+        <v>-0.2185233904634696</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5934369162212006</v>
+        <v>-0.2446115277000748</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4341878712941691</v>
+        <v>-0.8400618413291302</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.06190377330456934</v>
+        <v>0.7558375096357512</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.3475685092702465</v>
+        <v>0.1400996062747708</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.8685257261250142</v>
+        <v>-0.8006716288318068</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7812899044874114</v>
+        <v>-0.5911589693264648</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4012613981932696</v>
+        <v>0.7558375096357512</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4013769954610726</v>
+        <v>0.7650225335901145</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2957388362152883</v>
+        <v>-0.5324020212398434</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7063799363418797</v>
+        <v>0.3241758121704856</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1455801992128681</v>
+        <v>-0.2059933621186878</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.03925026035911169</v>
+        <v>-0.3795976095228741</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.2739974306440927</v>
+        <v>0.9282939061576646</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2108597812575163</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.76999996705254</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.7836498826702767</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4375174166958076</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5873403062255026</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.487006414778775</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8270070249841953</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8162699089149785</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7699496122943985</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3625637778066164</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5512120573774086</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.09888495702413733</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.2432651730566599</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7928199967282867</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7706967950914161</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1908563889963049</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8554840308932717</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5310949490668764</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7706967950914161</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8043435346460719</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5353273601422447</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.31914596339691</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3493131150121224</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3444030843490385</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.6438635923597047</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.4272070775139333</v>
+        <v>0.7849657314489187</v>
       </c>
     </row>
   </sheetData>
